--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="OrangeTC1" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -437,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
